--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{F05D4964-866E-47CE-ACFB-2770A4897890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9539EF-7AF9-0046-BA38-B47D21C2D99B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428DBA1E-8C58-4DD2-B200-C73AA8D5F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Valentin!$A$1:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Image</t>
   </si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Reserved</t>
   </si>
   <si>
     <t>Apple AirPods (3rd Gen.) MagSafe Case</t>
@@ -240,9 +240,6 @@
     <t>https://www.amazon.de/-/en/Fantasy-Flight-Games-Arkham-Horror/dp/B0999D3P8S/ref=sr_1_3?crid=HGFOXKZQTV6Y&amp;keywords=arkham+horror+english&amp;qid=1699364257&amp;sprefix=arkham+horror+en%2Caps%2C89&amp;sr=8-3</t>
   </si>
   <si>
-    <t>87.48 EUR</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61wUiOvhH2L._AC_SL1075_.jpg</t>
   </si>
   <si>
@@ -289,6 +286,36 @@
   </si>
   <si>
     <t>$19.99</t>
+  </si>
+  <si>
+    <t>https://stonemaiergames.com/games/wyrmspan/</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Reserved / bought</t>
+  </si>
+  <si>
+    <t>https://stonemaiergames.com/wp-content/uploads/2023/12/3D-box-768x915.png</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Stronghold-Games-STG06005-Terraforming-Families/dp/B01GSYA4K2/ref=sr_1_1?crid=3ULJPKGOSUMPW&amp;keywords=terraforming%2Bmars%2Benglish&amp;qid=1704718421&amp;sprefix=terraforming%2Bmars%2Benglish%2Caps%2C86&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t>65.54 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91x5bb0PyaL._AC_SX522_.jpg</t>
+  </si>
+  <si>
+    <t>Terraforming Mars (ENGLISH)</t>
+  </si>
+  <si>
+    <t>Wyrmspan Boardgame</t>
+  </si>
+  <si>
+    <t>67.76 EUR</t>
   </si>
 </sst>
 </file>
@@ -381,7 +408,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -719,19 +746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,317 +776,371 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E23" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
     <sortCondition ref="D3:D9"/>
   </sortState>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428DBA1E-8C58-4DD2-B200-C73AA8D5F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B225125-3806-4B93-8DED-F0DB3E2BB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12675" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>Image</t>
   </si>
@@ -316,6 +316,30 @@
   </si>
   <si>
     <t>67.76 EUR</t>
+  </si>
+  <si>
+    <t>8bitdo Arcade Stick</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/im/productimages/2/6/7/4/8/9/8/0/2/6/7/8/8/4/3/0/0/2/7/5ca5b75d-0beb-4a12-a783-031962cefaec_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/8bitdo-arcade-stick-switch-lite-switch-pc-game-controllers-13747515</t>
+  </si>
+  <si>
+    <t>78.60 CHF</t>
+  </si>
+  <si>
+    <t>Dire Straits Live 1978 - 1992 LP</t>
+  </si>
+  <si>
+    <t>https://superdeluxeedition.com/wp-content/uploads/2023/09/vinyl_spread-1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0C92W29LD?tag=sdepcwde-21&amp;linkCode=ogi&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>220 EUR</t>
   </si>
 </sst>
 </file>
@@ -747,10 +771,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,6 +1157,34 @@
       </c>
       <c r="D23" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B225125-3806-4B93-8DED-F0DB3E2BB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB25816-2147-410A-BC66-EDC1CB1ACB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12675" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="30330" yWindow="5445" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>Image</t>
   </si>
@@ -340,6 +340,66 @@
   </si>
   <si>
     <t>220 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/1506731910/ref=ox_sc_saved_image_1?smid=A3OJWAJQNSBARP&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/816zRN+6uYL._SY466_.jpg</t>
+  </si>
+  <si>
+    <t>47 EUR</t>
+  </si>
+  <si>
+    <t>World of Warcraft Chronicle Volume 4</t>
+  </si>
+  <si>
+    <t>Interstellar Blu-ray 4K HDR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71k6YEIUXsL._SX342_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/B075F3N9N5/ref=ox_sc_saved_image_4?smid=A3JWKAKR8XB7XF&amp;psc=1</t>
+  </si>
+  <si>
+    <t>18 EUR</t>
+  </si>
+  <si>
+    <t>Jaws Blu-ray 4K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/B0877NWJZF/ref=ox_sc_saved_image_7?smid=A30832IF5KZPY9&amp;psc=1</t>
+  </si>
+  <si>
+    <t>24 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81et3J4z9zL._SY445_.jpg</t>
+  </si>
+  <si>
+    <t>Hario V60 Filter Holder</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61OJDLw1I5L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/B00B7XJTP6/ref=ox_sc_saved_image_10?smid=ASHJXH5NF2K5S&amp;psc=1</t>
+  </si>
+  <si>
+    <t>28 EUR</t>
+  </si>
+  <si>
+    <t>Blackwing Palomino 602 Crayons</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61LScqtldhL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/gp/product/B006YYPIUI/ref=ox_sc_saved_image_28?smid=A1JA9WU0P0W558&amp;psc=1</t>
+  </si>
+  <si>
+    <t>35 EUR</t>
   </si>
 </sst>
 </file>
@@ -771,10 +831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1245,76 @@
       </c>
       <c r="D25" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB25816-2147-410A-BC66-EDC1CB1ACB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2735382D-BBA9-476B-8E6A-76ABD7DDF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="5445" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>Image</t>
   </si>
@@ -400,6 +400,54 @@
   </si>
   <si>
     <t>35 EUR</t>
+  </si>
+  <si>
+    <t>LEGO 10326 National History Museum</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt605b1b75fa5b0269/10326_boxprod_v39.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/natural-history-museum-10326</t>
+  </si>
+  <si>
+    <t>319 CHF</t>
+  </si>
+  <si>
+    <t>LEGO 10297 Boutique Hotel</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltf5232acff5ba0c26/10297_alt1.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/boutique-hotel-10297</t>
+  </si>
+  <si>
+    <t>239 CHF</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt0f02b0cd97117394/21343_alt1.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/viking-village-21343</t>
+  </si>
+  <si>
+    <t>159 CHF</t>
+  </si>
+  <si>
+    <t>LEGO 21343 Viking Village</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/plum-blossom-10369</t>
+  </si>
+  <si>
+    <t>LEGO 10369 Plum Blossom</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltfb7d7a6f01832c91/10369_boxprod_v39_sha.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>30 CHF</t>
   </si>
 </sst>
 </file>
@@ -831,10 +879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1363,62 @@
       </c>
       <c r="D30" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2735382D-BBA9-476B-8E6A-76ABD7DDF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7329A3-5243-426F-81DB-3848EED62E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>Image</t>
   </si>
@@ -448,6 +448,42 @@
   </si>
   <si>
     <t>30 CHF</t>
+  </si>
+  <si>
+    <t>Chinatown 4K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Jack-Nicholson/dp/B0D9RR7X5P/ref=sr_1_1?crid=3SOGPKQV9UITI&amp;dib=eyJ2IjoiMSJ9.CE3YLu_NPn6syLZ7GBcsz4qEcsjlEm2sGv0Vx-b7F2uh6CyBYY02vTsRT-tQ9-j8GCKpYaRm337tKkSfCi1cgChi-DtEAHPzSOAk0FLkwSUhd-fdWDJTY2raBshE9BFBBSu9syQRVX3GWdFUDzLm0FdQr6ZKHJLQ-cNyE1pQ9ixel8dQmSeThB3EO64eKs-3ly0aaDpa8Zpsv92RYGsW6b3Keao6AC6luXh0j9r_dUk.I3PWPbcxUffDOD-5GzUup630T-8tHzjgm-UGm2IObjA&amp;dib_tag=se&amp;keywords=chinatown+4k&amp;qid=1721912692&amp;sprefix=chinatown+4k%2Caps%2C120&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Q2LnsKtWL._SY445_.jpg</t>
+  </si>
+  <si>
+    <t>21.73 EUR</t>
+  </si>
+  <si>
+    <t>Abyss 4K</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/810finUC6+L._SX342_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/James-Cameron/dp/B0CVKVH3VN/ref=sr_1_1?crid=1EPHQH2T7H52Q&amp;dib=eyJ2IjoiMSJ9.CzkHBhjfMxojXMbBFhQoede9y_v-aB_mhyhLpWIXsRkXeCy__wBLbyq-kjyD_iNQ87ikGF216HZox5M3Vg6jVh5QAEdFBLzrHvVfduidflv_hw19eU7iTmETWD3EAlWHQAYGLQzSm3FfEKV3_uzjc64cbdhBH5bnOVvHd4aMZ5lpHPyLqOgpz3vWu1NNbI_mdterRh-R5jlhcOh2EggHnOfEM4LQl8uH2WVbK8T8TK8.dlkA6Kxh3OzGsrJ2qyOFFQAaGkeGbXDoqseHWzRqQhc&amp;dib_tag=se&amp;keywords=abyss+4k&amp;qid=1721911150&amp;sprefix=abyss+4%2Caps%2C303&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>30 EUR</t>
+  </si>
+  <si>
+    <t>Paprika 4K</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/nas/cover_large/4a/4k_paprikasteelbook.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/index.cfm/details/product/183350-Paprika-Steelbook-Edition-Blu-ray-UHD-2-Discs</t>
+  </si>
+  <si>
+    <t>36 CHF</t>
   </si>
 </sst>
 </file>
@@ -879,10 +915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1455,48 @@
       </c>
       <c r="D34" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7329A3-5243-426F-81DB-3848EED62E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67193C21-600D-48DD-9930-40AB2A36C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="43200" windowHeight="17175" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
   <si>
     <t>Image</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>36 CHF</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/index.cfm/details/product/196112%2DAstro%2DBot</t>
+  </si>
+  <si>
+    <t>64.90 CHF</t>
+  </si>
+  <si>
+    <t>Astro Bot PS5</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/nas/cover_large/p5/p5_astrobot.jpg</t>
   </si>
 </sst>
 </file>
@@ -915,10 +927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,6 +1509,20 @@
       </c>
       <c r="D37" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67193C21-600D-48DD-9930-40AB2A36C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0697ED-BBCD-4122-A839-941DB9A6A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="43200" windowHeight="17175" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
   <si>
     <t>Image</t>
   </si>
@@ -165,9 +165,6 @@
     <t>500ml Tall Glass Jug with Lid</t>
   </si>
   <si>
-    <t>https://www.loveramics.com/cdn/shop/products/brewers_jugs_square_1024_00035_800x.jpg?v=1668676707</t>
-  </si>
-  <si>
     <t>21.95 EUR</t>
   </si>
   <si>
@@ -496,6 +493,21 @@
   </si>
   <si>
     <t>https://www.wog.ch/nas/cover_large/p5/p5_astrobot.jpg</t>
+  </si>
+  <si>
+    <t>CITY OF DARKNESS – SPECIAL REPRINT</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/City-Darkness-Limited-Edition-Life-Kowloon/31292330335/bd</t>
+  </si>
+  <si>
+    <t>https://pictures.abebooks.com/isbn/9781873200896-us.jpg</t>
+  </si>
+  <si>
+    <t>~ 160 CHF</t>
+  </si>
+  <si>
+    <t>https://www.loveramics.com/cdn/shop/files/C099-19A_C099-78A_6b04fe54-a378-4be5-a3fe-968b39d5537e.png?v=1727169104&amp;width=700</t>
   </si>
 </sst>
 </file>
@@ -574,59 +586,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Brewers - 500ml Tall Glass Jug with Lid">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2764058-D450-7759-F64F-A8B30E6CE289}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1743075" y="2095500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,10 +886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -964,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -973,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -990,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,19 +968,19 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1031,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,401 +1087,427 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
         <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
+      <c r="E26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
         <v>124</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>125</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
         <v>131</v>
       </c>
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>134</v>
       </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" t="s">
-        <v>149</v>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1540,12 +1525,10 @@
     <hyperlink ref="B6" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{BDDC5E81-F85C-4DEA-83D8-20D91EEB2F5E}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0697ED-BBCD-4122-A839-941DB9A6A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B637979-ABFE-43A6-AF6D-E0B03ED6C593}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>Image</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>https://www.loveramics.com/cdn/shop/files/C099-19A_C099-78A_6b04fe54-a378-4be5-a3fe-968b39d5537e.png?v=1727169104&amp;width=700</t>
+  </si>
+  <si>
+    <t>Pulp Fiction [4K Ultra HD]</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61v0QDTS-kL._SX522_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Pulp-Fiction-Limited-Collectors-Blu-ray/dp/B0DJDGYFTG?dib=eyJ2IjoiMSJ9.klW5y3HEDcmd7XsJ5SEDjsF3dIxtdAK9F9DnVk-09K-jG4H-CeSBPlOXcvVa7BzhIMirUVtfM90L_viZ6GLyyYeS8tLnSm4nWX4dICrV5ZAnTl50gG28XiIWyUvtdcU1WrtcuAoHHevKzxqu_iNKyy_HFqWlLiYxdnko2L-Iz6EGEeXPYOUjZfeScCFBTYAs6OTdF5RE9LRwK5ITWgS5Ag8eskzKt0ZdLhkH_pjbxXI.R25ziHAmaTXuk5wZzqxoNjqm7stqNzTBEkKJ00SARqo&amp;dib_tag=se&amp;keywords=Pulp+Fiction+30th+Anniversary+Collector%27s+Edition+Amazon+Exclusive+%5B4K+UHD+Blu-Ray+Digital+Copy%5D&amp;linkCode=gg3&amp;linkId=3ddeaf77413169d18b3d6c726143490d&amp;nsdOptOutParam=true&amp;qid=1735808493&amp;sr=8-1&amp;ufe=INHOUSE_INSTALLMENTS%3ADE_IHI_3M_AUTOMATED</t>
+  </si>
+  <si>
+    <t>45 EUR</t>
   </si>
 </sst>
 </file>
@@ -589,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,10 +898,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1189,9 @@
       <c r="D17" t="s">
         <v>90</v>
       </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1332,6 +1347,9 @@
       <c r="D27" t="s">
         <v>106</v>
       </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1495,6 +1513,9 @@
       <c r="D38" t="s">
         <v>148</v>
       </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1508,6 +1529,20 @@
       </c>
       <c r="D39" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B637979-ABFE-43A6-AF6D-E0B03ED6C593}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5E5F06-FE20-46AB-9DDD-0AB38AFEEF48}"/>
   <bookViews>
     <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
   <si>
     <t>Image</t>
   </si>
@@ -598,6 +598,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,7 +905,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,6 +1381,9 @@
       </c>
       <c r="D29" t="s">
         <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Valentin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5E5F06-FE20-46AB-9DDD-0AB38AFEEF48}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21535169-7A54-443E-B21B-DD7E2E0F74B0}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="163">
   <si>
     <t>Image</t>
   </si>
@@ -520,6 +520,15 @@
   </si>
   <si>
     <t>45 EUR</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/tudor-corner-10350</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltc38b5911d77d1733/10350_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=1200&amp;height=1200&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>LEGO 10350 Tudor Corner</t>
   </si>
 </sst>
 </file>
@@ -598,10 +607,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,10 +907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1555,20 @@
       </c>
       <c r="D40" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21535169-7A54-443E-B21B-DD7E2E0F74B0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F82C0BC-4AAC-4FFA-B600-5BE7CE373A21}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
   <si>
     <t>Image</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>LEGO 10350 Tudor Corner</t>
+  </si>
+  <si>
+    <t>https://c0.iggcdn.com/indiegogo-media-prod-cld/image/upload/c_fill,g_center,q_auto,f_auto,h_506,w_762/fuxofrj2akskjdvfimjn</t>
+  </si>
+  <si>
+    <t>https://www.indiegogo.com/projects/4-in-1-edc-flashlight-versatile-all-in-one-tool?utm_source=newatlas.com&amp;utm_campaign=c8a8ecab&amp;utm_content=link&amp;utm_medium=kickbooster#/</t>
+  </si>
+  <si>
+    <t>49 CHF</t>
+  </si>
+  <si>
+    <t>Lanterna</t>
   </si>
 </sst>
 </file>
@@ -607,6 +619,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,10 +923,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,6 +1585,20 @@
       </c>
       <c r="D41" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="6_{0A54E735-DE20-4772-A34B-513F641A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F82C0BC-4AAC-4FFA-B600-5BE7CE373A21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A21BF-6CD7-49AC-A378-8C8A170FA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3900" yWindow="600" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
   <si>
     <t>Image</t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>Lanterna</t>
+  </si>
+  <si>
+    <t>Ark Nova</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/ro/acasa/ark-nova-romanian-edition</t>
+  </si>
+  <si>
+    <t>319 RON</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/20233-large_default/ark-nova-romanian-edition.jpg</t>
   </si>
 </sst>
 </file>
@@ -621,14 +633,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -666,7 +674,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -772,7 +780,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -914,7 +922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,10 +931,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,6 +1321,9 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1599,6 +1610,20 @@
       </c>
       <c r="D42" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A21BF-6CD7-49AC-A378-8C8A170FA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C438D3-45F1-4AF5-9BD6-EF18DEF1AA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>Image</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>https://regatuljocurilor.ro/20233-large_default/ark-nova-romanian-edition.jpg</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/boxsets/1069-the-complete-jacques-tati</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/product_images/1826-74abafd9cdfb81dc87d1738ec3c99693/VZ6wkU3rR5LF2srqIn918sRLIBPOl8_large.jpg</t>
+  </si>
+  <si>
+    <t>The Complete Jacques Tati</t>
+  </si>
+  <si>
+    <t>100 USD</t>
   </si>
 </sst>
 </file>
@@ -634,9 +646,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,7 +686,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -780,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,7 +934,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,10 +943,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1636,20 @@
       </c>
       <c r="D43" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C438D3-45F1-4AF5-9BD6-EF18DEF1AA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E206D426-E5B9-43BB-B131-1FC980883F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="187">
   <si>
     <t>Image</t>
   </si>
@@ -565,6 +565,42 @@
   </si>
   <si>
     <t>100 USD</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/films/790-the-leopard</t>
+  </si>
+  <si>
+    <t>40 USD</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/films/96833308352eedd79b50b2de8016a6c5/7IQOqWTrRuJg90rWrJZbK1VXI7aDcR_large.jpg</t>
+  </si>
+  <si>
+    <t>The Leopard</t>
+  </si>
+  <si>
+    <t>Heat: Pedal to the Metal (English Edition)</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/74113-large_default/heat-pedal-to-the-metal.jpg</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/ro/acasa/heat-pedal-to-the-metal</t>
+  </si>
+  <si>
+    <t>399 RON</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/134548-large_default/sky-team-romanian-edition.jpg</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/ro/acasa/sky-team-romanian-edition</t>
+  </si>
+  <si>
+    <t>169 RON</t>
+  </si>
+  <si>
+    <t>Sky Team (2024 Romanian Edition)</t>
   </si>
 </sst>
 </file>
@@ -943,10 +979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1157,9 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1319,6 +1358,9 @@
       <c r="D22" t="s">
         <v>82</v>
       </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1457,6 +1499,9 @@
       <c r="D31" t="s">
         <v>122</v>
       </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1623,6 +1668,9 @@
       <c r="D42" t="s">
         <v>165</v>
       </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1650,6 +1698,48 @@
       </c>
       <c r="D44" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E206D426-E5B9-43BB-B131-1FC980883F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
   <si>
     <t>Image</t>
   </si>
@@ -601,6 +601,18 @@
   </si>
   <si>
     <t>Sky Team (2024 Romanian Edition)</t>
+  </si>
+  <si>
+    <t>Joyride Boardgame</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Rebellion-Unplugged-Joyride-Survival-Racetracks/dp/B0DK447SQL/ref=sr_1_4?crid=2ZDACXNCRQQAV&amp;dib=eyJ2IjoiMSJ9.9QDGL8mXnxBi6nTWyr4sccLy7IHJvxWJNY5ZXssbbrv1crQfLFeWK-QIK9vWhIVFDa40XUP2l5sBNnUtBDUE9h3YgeqZe0Ez9A4_2XEAz929OPbWgvehprjUB-NqTJqZ3hLitlSm3BL0QC8RDNCQeCl2z8o1iDowAXx615RaJzpT_aj39WD0U_tBU6EVLKp_CjNwitpr_RCP9UudaNFzk1hJOzo6KZHLBaXGBwhPP7Y.sABZkyocjYDgaeEFY0FLYv0VQk5or2C_-cEcr0Stksc&amp;dib_tag=se&amp;keywords=joyride%2Benglish&amp;qid=1739278382&amp;sprefix=joyride%2Benglish%2Caps%2C105&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/710faG4ZPML._AC_SY450_.jpg</t>
+  </si>
+  <si>
+    <t>65 EUR</t>
   </si>
 </sst>
 </file>
@@ -979,10 +991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,6 +1752,20 @@
       </c>
       <c r="D47" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEABF0D-F865-404F-B10C-CAC34DDEA7C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Valentin!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Valentin!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="191">
   <si>
     <t>Image</t>
   </si>
@@ -994,7 +994,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -1696,6 +1696,9 @@
       </c>
       <c r="D43" t="s">
         <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,7 +1743,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -1752,6 +1755,9 @@
       </c>
       <c r="D47" t="s">
         <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,7 +1775,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E48" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEABF0D-F865-404F-B10C-CAC34DDEA7C3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7EA9B9-B7AB-4FF2-99A2-8D18F512B8E8}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="195">
   <si>
     <t>Image</t>
   </si>
@@ -613,6 +613,18 @@
   </si>
   <si>
     <t>65 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Wire-komplette-Serie-Blu-ray-Limited/dp/B00VALUTWW?crid=307CDJ3CWAWAP&amp;dib=eyJ2IjoiMSJ9.nCTJC1rZ7ZLHsLy7TCoOEbLxIyRylbNXmdIzJCQJ2UWI2DxoSixVA9JqKMEV6mxz29R-oVBc5l3Q8Xqb-1FQaI7-Hi3akTGw9F6Md-uwl84wzNoq2HeqtRuMBT8sztuHlL4N0YFmzqI7FsqcacHn7hdc6TSsKB64cXQZC_DYV0gx8sDnp9V3v3p31KiZLJAeRZU1x0vrZ1gPdlJQNX49a7UxKrhYcfyg-Rd3LP_ctnk.0h-k3XCVFesH_3Ht1AJJYNCW2zey6N3HiPFJKBFss4w&amp;dib_tag=se&amp;keywords=the+wire&amp;qid=1741357939&amp;sprefix=the+wire%2Caps%2C98&amp;sr=8-1&amp;ufe=app_do%3Aamzn1.fos.1d0000e1-44b8-40d1-a25b-0cacf650cfb8</t>
+  </si>
+  <si>
+    <t>71 EUR</t>
+  </si>
+  <si>
+    <t>The Wire Blu-ray</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91j2tD6pM9L._SX342_.jpg</t>
   </si>
 </sst>
 </file>
@@ -691,6 +703,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,6 +1788,20 @@
       </c>
       <c r="D48" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1791,8 +1821,9 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
     <hyperlink ref="C16" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="B49" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/valentinwishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3BBCB612-0DFC-4ED7-A648-2544677DF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7EA9B9-B7AB-4FF2-99A2-8D18F512B8E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D913359-A5AA-4689-9E7C-90581C27CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="43200" windowHeight="17085" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
   <si>
     <t>Image</t>
   </si>
@@ -625,6 +625,18 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/91j2tD6pM9L._SX342_.jpg</t>
+  </si>
+  <si>
+    <t>Root Boardgame</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Leder-Games-LED01000-Root-Game/dp/B07F454YF3/ref=sr_1_2_mod_primary_new?dib=eyJ2IjoiMSJ9.6CDHwDz4ym78N7qETcYkjfoSY2mwJydyxT12aGMYUEbjeDX5EJUI2V7Nt04l1GQaXVxQVvc2WVVSqL5ZOlTzoxNHIRxNdbPa8SE0HpjF7vOM9Ij8WNlHurk5SVGm0IMoQwaDspMthHEbHHq5WrP4jfivUJll5JLDW4-ih0KI36X0IVBiIxEf24HpQKa_-neD.tSUwCbfvn4n4eabrwxs2YrOsGUGmbZuewzhphCWX8TQ&amp;dib_tag=se&amp;keywords=Leder+Games+Root&amp;linkCode=gg3&amp;qid=1750840429&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>73 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ezFG-gQ6L._AC_SX679_.jpg</t>
   </si>
 </sst>
 </file>
@@ -703,10 +715,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,16 +1083,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1802,6 +1810,20 @@
       </c>
       <c r="D49" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1837,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
+    <hyperlink ref="B50" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D913359-A5AA-4689-9E7C-90581C27CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8543184-F312-4CD3-BBEC-783FD134B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="5370" windowWidth="43200" windowHeight="17085" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="208">
   <si>
     <t>Image</t>
   </si>
@@ -637,12 +637,42 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/91ezFG-gQ6L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/films/096615d592e061235c83a3731ec42883/efn3iNcCcalzGL6WK5O7v6sS52K9QE_large.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/films/14f3b3df50d35f7ec6f84b9eab677a29/bjQNJLLze06EDvfZpwPlGxDfciyqyT_large.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/films/58af11c9e0933492c227a0f6bc42fcb5/Kknn0rzbae43wtmBwvemdtega0BMS7_large.jpg</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/films/34685-flow</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/films/317-this-is-spinal-tap</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/films/29368-the-princess-bride</t>
+  </si>
+  <si>
+    <t>Flow 4K Blu-Ray</t>
+  </si>
+  <si>
+    <t>This Is Spinal Tap 4K Blu-Ray</t>
+  </si>
+  <si>
+    <t>The Princess Bride 4K Blu-Ray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,10 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1015,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1132,9 @@
       <c r="D4" t="s">
         <v>197</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1600,6 +1641,9 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1766,6 +1810,9 @@
       <c r="D46" t="s">
         <v>182</v>
       </c>
+      <c r="E46" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1824,6 +1871,48 @@
       </c>
       <c r="D50" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8543184-F312-4CD3-BBEC-783FD134B7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2EF98-DA79-4B4B-B7EF-B7C3D0722872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19395" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valentin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Valentin!$A$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,9 +318,6 @@
     <t>8bitdo Arcade Stick</t>
   </si>
   <si>
-    <t>https://www.digitec.ch/im/productimages/2/6/7/4/8/9/8/0/2/6/7/8/8/4/3/0/0/2/7/5ca5b75d-0beb-4a12-a783-031962cefaec_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
-  </si>
-  <si>
     <t>https://www.digitec.ch/en/s1/product/8bitdo-arcade-stick-switch-lite-switch-pc-game-controllers-13747515</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>Dire Straits Live 1978 - 1992 LP</t>
   </si>
   <si>
-    <t>https://superdeluxeedition.com/wp-content/uploads/2023/09/vinyl_spread-1.jpg</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/dp/B0C92W29LD?tag=sdepcwde-21&amp;linkCode=ogi&amp;th=1&amp;psc=1</t>
   </si>
   <si>
@@ -664,6 +658,12 @@
   </si>
   <si>
     <t>The Princess Bride 4K Blu-Ray</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/5/3/0/9/6/9/3/2/6/2/6/1/6/3/8/8/2/1/6/e9b3a391-deba-4043-bcc4-49ae473ffb8e.jpg_2880.avif</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71U7So0XPVL._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
         <v>195</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>54</v>
@@ -1260,7 +1260,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1461,41 +1461,41 @@
         <v>91</v>
       </c>
       <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
@@ -1520,30 +1520,30 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" t="s">
-        <v>114</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
@@ -1551,30 +1551,30 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
         <v>119</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -1582,30 +1582,30 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>124</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
       </c>
       <c r="E33" t="s">
         <v>54</v>
@@ -1613,16 +1613,16 @@
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
       </c>
       <c r="E34" t="s">
         <v>54</v>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
@@ -1647,16 +1647,16 @@
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="B36" t="s">
-        <v>137</v>
-      </c>
       <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
         <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -1664,30 +1664,30 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
@@ -1695,58 +1695,58 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
       <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
         <v>152</v>
-      </c>
-      <c r="D39" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
         <v>156</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
         <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" t="s">
-        <v>165</v>
       </c>
       <c r="E42" t="s">
         <v>54</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
         <v>167</v>
-      </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" t="s">
-        <v>169</v>
       </c>
       <c r="E43" t="s">
         <v>54</v>
@@ -1771,44 +1771,44 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
         <v>172</v>
-      </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
         <v>179</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>180</v>
-      </c>
-      <c r="C46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" t="s">
-        <v>182</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>54</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" t="s">
         <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" t="s">
-        <v>185</v>
       </c>
       <c r="E47" t="s">
         <v>54</v>
@@ -1833,30 +1833,30 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
         <v>187</v>
       </c>
-      <c r="B48" t="s">
-        <v>189</v>
-      </c>
       <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
         <v>188</v>
-      </c>
-      <c r="D48" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D51" s="3">
         <v>40</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D52" s="3">
         <v>40</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D53" s="3">
         <v>40</v>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2EF98-DA79-4B4B-B7EF-B7C3D0722872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{84A2EF98-DA79-4B4B-B7EF-B7C3D0722872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2759D5C-B508-477F-8B38-ACD632A7E2A1}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19395" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="210">
   <si>
     <t>Image</t>
   </si>
@@ -291,9 +291,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Reserved / bought</t>
-  </si>
-  <si>
     <t>https://stonemaiergames.com/wp-content/uploads/2023/12/3D-box-768x915.png</t>
   </si>
   <si>
@@ -393,18 +390,6 @@
     <t>35 EUR</t>
   </si>
   <si>
-    <t>LEGO 10326 National History Museum</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/cdn/cs/set/assets/blt605b1b75fa5b0269/10326_boxprod_v39.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/en-ch/product/natural-history-museum-10326</t>
-  </si>
-  <si>
-    <t>319 CHF</t>
-  </si>
-  <si>
     <t>LEGO 10297 Boutique Hotel</t>
   </si>
   <si>
@@ -664,6 +649,27 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71U7So0XPVL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2986/1172/files/Everyday-Sling-3L-Coyote-8344_0ce1bbff-9daf-4d8f-8515-20a167afa3d4.jpg?v=1726098987&amp;width=700&amp;height=700&amp;crop=center</t>
+  </si>
+  <si>
+    <t>Peak Design Everyday Sling</t>
+  </si>
+  <si>
+    <t>https://www.peakdesign.com/eu/products/everyday-sling?Size=3L&amp;Color=Coyote+X-Pac%E2%84%A2</t>
+  </si>
+  <si>
+    <t>100 EUR</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>SKIP (skip) / Y (reserved) / GAP (formatting gap)</t>
+  </si>
+  <si>
+    <t>GAP</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -735,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -753,6 +759,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1075,7 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1099,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1116,750 +1126,741 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="3">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
         <v>154</v>
       </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
         <v>156</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C44" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>160</v>
       </c>
-      <c r="B41" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D45" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
+      <c r="E45" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
         <v>177</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D48" t="s">
         <v>178</v>
       </c>
-      <c r="C46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" t="s">
         <v>181</v>
       </c>
-      <c r="C47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>183</v>
       </c>
-      <c r="E47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1873,66 +1874,82 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="3">
-        <v>40</v>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E48" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E55" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="Y"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
-    <sortCondition ref="D3:D9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="D3:D8"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
     <hyperlink ref="B50" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
-    <hyperlink ref="B49" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{84A2EF98-DA79-4B4B-B7EF-B7C3D0722872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2759D5C-B508-477F-8B38-ACD632A7E2A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="2730" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
   <si>
     <t>Image</t>
   </si>
@@ -670,6 +670,18 @@
   </si>
   <si>
     <t>GAP</t>
+  </si>
+  <si>
+    <t>https://www.peakdesign.com/eu/products/leash?Color=Ibis</t>
+  </si>
+  <si>
+    <t>50 EUR</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2986/1172/files/Leash_TopDown_Ibis.jpg?v=1753733022&amp;width=700&amp;height=700&amp;crop=center</t>
+  </si>
+  <si>
+    <t>Peak Design Leash</t>
   </si>
 </sst>
 </file>
@@ -677,7 +689,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -741,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -759,10 +771,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,64 +1882,78 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>191</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E55" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E56" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="Y"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B270465-80E8-4FEC-BBE7-58D07E422E30}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
   <si>
     <t>Image</t>
   </si>
@@ -672,16 +672,16 @@
     <t>GAP</t>
   </si>
   <si>
-    <t>https://www.peakdesign.com/eu/products/leash?Color=Ibis</t>
-  </si>
-  <si>
     <t>50 EUR</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/2986/1172/files/Leash_TopDown_Ibis.jpg?v=1753733022&amp;width=700&amp;height=700&amp;crop=center</t>
-  </si>
-  <si>
     <t>Peak Design Leash</t>
+  </si>
+  <si>
+    <t>https://www.peakdesign.com/eu/products/leash?Color=Coyote</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2986/1172/files/straps-leash-coyote-studio_7ce3a75b-a3b2-4340-9294-5f92bbee0db3.jpg?v=1727121642&amp;width=700&amp;height=700&amp;crop=center</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -753,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1071,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,27 +1272,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="3">
-        <v>40</v>
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D13" s="3">
         <v>40</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="3">
         <v>40</v>
@@ -1342,44 +1342,47 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>207</v>
@@ -1387,16 +1390,16 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>207</v>
@@ -1404,16 +1407,16 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>207</v>
@@ -1421,16 +1424,16 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>207</v>
@@ -1438,16 +1441,16 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>207</v>
@@ -1455,16 +1458,16 @@
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>207</v>
@@ -1472,16 +1475,16 @@
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>207</v>
@@ -1489,16 +1492,16 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>207</v>
@@ -1506,16 +1509,16 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>207</v>
@@ -1523,16 +1526,16 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>207</v>
@@ -1540,64 +1543,64 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
         <v>207</v>
@@ -1605,61 +1608,64 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
         <v>207</v>
@@ -1667,50 +1673,47 @@
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
         <v>207</v>
@@ -1718,201 +1721,218 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" t="s">
-        <v>177</v>
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>54</v>
@@ -1920,42 +1940,26 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E56" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E54" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1">
+        <filter val="GAP"/>
         <filter val="Y"/>
       </filters>
     </filterColumn>
@@ -1965,12 +1969,12 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
-    <hyperlink ref="B50" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
+    <hyperlink ref="B48" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
     <hyperlink ref="B15" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B270465-80E8-4FEC-BBE7-58D07E422E30}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308455A6-B44B-4569-8DC0-AA66E3BA1850}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="222">
   <si>
     <t>Image</t>
   </si>
@@ -682,6 +682,30 @@
   </si>
   <si>
     <t>https://cdn.shopify.com/s/files/1/2986/1172/files/straps-leash-coyote-studio_7ce3a75b-a3b2-4340-9294-5f92bbee0db3.jpg?v=1727121642&amp;width=700&amp;height=700&amp;crop=center</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/ro/acasa/the-lord-of-the-rings-fate-of-the-fellowship-english-edition</t>
+  </si>
+  <si>
+    <t>360 RON / 70 EUR</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/135621-large_default/the-lord-of-the-rings-fate-of-the-fellowship-english-edition.jpg</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: Fate of the Fellowship Board Game</t>
+  </si>
+  <si>
+    <t>Bomb Busters (English Edition) Board Game</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/135947-large_default/-bomb-busters-english-edition.jpg</t>
+  </si>
+  <si>
+    <t>https://regatuljocurilor.ro/ro/acasa/-bomb-busters-english-edition</t>
+  </si>
+  <si>
+    <t>180 RON</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,75 +1338,72 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" t="s">
-        <v>185</v>
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
+        <v>220</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>112</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>207</v>
@@ -1390,16 +1411,16 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>207</v>
@@ -1407,16 +1428,16 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>207</v>
@@ -1424,16 +1445,16 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>207</v>
@@ -1441,16 +1462,16 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>207</v>
@@ -1458,16 +1479,16 @@
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
         <v>207</v>
@@ -1475,16 +1496,16 @@
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>207</v>
@@ -1492,16 +1513,16 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>207</v>
@@ -1509,16 +1530,16 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>207</v>
@@ -1526,16 +1547,16 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>207</v>
@@ -1543,16 +1564,16 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>207</v>
@@ -1560,95 +1581,95 @@
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
         <v>207</v>
@@ -1656,16 +1677,16 @@
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
         <v>207</v>
@@ -1673,249 +1694,249 @@
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>142</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>140</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>141</v>
       </c>
-      <c r="E39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" t="s">
-        <v>152</v>
+      <c r="E40" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>155</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>154</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>153</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>160</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>163</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>162</v>
       </c>
-      <c r="E43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" t="s">
-        <v>167</v>
+      <c r="E44" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>171</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>168</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>179</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>176</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>178</v>
       </c>
-      <c r="E46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" t="s">
-        <v>183</v>
+      <c r="E47" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>199</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>193</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
         <v>54</v>
@@ -1923,16 +1944,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>54</v>
@@ -1940,23 +1961,57 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>90</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>201</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>91</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E54" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E56" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="GAP"/>
@@ -1969,15 +2024,16 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
-    <hyperlink ref="B48" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
+    <hyperlink ref="B49" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E9A7056B-0F85-4F5F-8113-91D6BC1A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308455A6-B44B-4569-8DC0-AA66E3BA1850}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588A48C-A889-42D1-A482-5E3024947B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="11490" yWindow="2865" windowWidth="17250" windowHeight="13710" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="221">
   <si>
     <t>Image</t>
   </si>
@@ -378,18 +378,6 @@
     <t>28 EUR</t>
   </si>
   <si>
-    <t>Blackwing Palomino 602 Crayons</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61LScqtldhL._AC_SX679_.jpg</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/-/en/gp/product/B006YYPIUI/ref=ox_sc_saved_image_28?smid=A1JA9WU0P0W558&amp;psc=1</t>
-  </si>
-  <si>
-    <t>35 EUR</t>
-  </si>
-  <si>
     <t>LEGO 10297 Boutique Hotel</t>
   </si>
   <si>
@@ -636,15 +624,9 @@
     <t>https://www.criterion.com/films/29368-the-princess-bride</t>
   </si>
   <si>
-    <t>Flow 4K Blu-Ray</t>
-  </si>
-  <si>
     <t>This Is Spinal Tap 4K Blu-Ray</t>
   </si>
   <si>
-    <t>The Princess Bride 4K Blu-Ray</t>
-  </si>
-  <si>
     <t>https://static01.galaxus.com/productimages/5/3/0/9/6/9/3/2/6/2/6/1/6/3/8/8/2/1/6/e9b3a391-deba-4043-bcc4-49ae473ffb8e.jpg_2880.avif</t>
   </si>
   <si>
@@ -706,6 +688,21 @@
   </si>
   <si>
     <t>180 RON</t>
+  </si>
+  <si>
+    <t>https://www.criterion.com/films/543-high-and-low?utm_source=braze&amp;utm_medium=email&amp;utm_campaign=new-releases-available&amp;utm_content=sep-2025</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/criterion-production/films/e65763e6d1d83a962ab19a408bfda6eb/jl9963uFAEon5uv5zfWBbGjunRKJ7h_large.jpg</t>
+  </si>
+  <si>
+    <t>High and Low 4K Blu-ray</t>
+  </si>
+  <si>
+    <t>Flow 4K Blu-ray</t>
+  </si>
+  <si>
+    <t>The Princess Bride 4K Blu-ray</t>
   </si>
 </sst>
 </file>
@@ -713,7 +710,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -777,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,20 +1094,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1124,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1141,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1158,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1175,10 +1172,10 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1192,10 +1189,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1209,10 +1206,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1226,10 +1223,10 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1243,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1260,10 +1257,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1277,122 +1274,122 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
         <v>204</v>
       </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D13" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>218</v>
       </c>
-      <c r="B16" t="s">
-        <v>219</v>
+      <c r="B16" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D16" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1406,10 +1403,10 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1423,10 +1420,10 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1440,10 +1437,10 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1457,10 +1454,10 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1474,10 +1471,10 @@
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1491,10 +1488,10 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1508,10 +1505,10 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1525,10 +1522,10 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1542,10 +1539,10 @@
         <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1559,10 +1556,10 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1576,10 +1573,10 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1593,10 +1590,10 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -1610,10 +1607,10 @@
         <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1641,97 +1638,97 @@
         <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
         <v>125</v>
       </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="E36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
       <c r="E38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1740,145 +1737,145 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
         <v>154</v>
       </c>
-      <c r="C42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>158</v>
       </c>
-      <c r="E43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" t="s">
         <v>166</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
         <v>165</v>
       </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1892,79 +1889,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D51" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -1976,29 +1973,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
         <v>91</v>
@@ -2030,8 +2027,8 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
     <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
     <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588A48C-A889-42D1-A482-5E3024947B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E338DB-40B6-4262-9583-6B45DA59074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="2865" windowWidth="17250" windowHeight="13710" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="224">
   <si>
     <t>Image</t>
   </si>
@@ -703,6 +703,15 @@
   </si>
   <si>
     <t>The Princess Bride 4K Blu-ray</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/nas/cover_large/p5/p5_ghostofyotei.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/de/index.cfm/details/product/203069-Ghost-of-Y-tei</t>
+  </si>
+  <si>
+    <t>Ghost of Yotei</t>
   </si>
 </sst>
 </file>
@@ -1092,22 +1101,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -1305,710 +1314,724 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>188</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>193</v>
-      </c>
-      <c r="D13" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
-        <v>191</v>
       </c>
       <c r="D14" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>180</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>211</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>212</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="E23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="E25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>71</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="E27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="E28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>85</v>
       </c>
-      <c r="E29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
-      <c r="E30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>107</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>105</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>121</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>123</v>
       </c>
-      <c r="E36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="E37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>124</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>125</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>127</v>
       </c>
-      <c r="E38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>136</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>145</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>146</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>151</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>150</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>153</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>154</v>
       </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>156</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>159</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>157</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="E44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>162</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>161</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>167</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>166</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>164</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>172</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>173</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="E47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="E48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>176</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>178</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>177</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>132</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>133</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>134</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>194</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>189</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>140</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>142</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>141</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>168</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>170</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>93</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>196</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>94</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>95</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>184</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>187</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>185</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>186</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>92</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E56" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E57" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="GAP"/>
@@ -2021,14 +2044,14 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
-    <hyperlink ref="B49" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
+    <hyperlink ref="B50" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E338DB-40B6-4262-9583-6B45DA59074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{64E338DB-40B6-4262-9583-6B45DA59074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A808B821-B50A-4D06-ACB6-73539A74D194}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3645" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="224">
   <si>
     <t>Image</t>
   </si>
@@ -606,24 +606,12 @@
     <t>https://m.media-amazon.com/images/I/91ezFG-gQ6L._AC_SX679_.jpg</t>
   </si>
   <si>
-    <t>https://s3.amazonaws.com/criterion-production/films/096615d592e061235c83a3731ec42883/efn3iNcCcalzGL6WK5O7v6sS52K9QE_large.jpg</t>
-  </si>
-  <si>
     <t>https://s3.amazonaws.com/criterion-production/films/14f3b3df50d35f7ec6f84b9eab677a29/bjQNJLLze06EDvfZpwPlGxDfciyqyT_large.jpg</t>
   </si>
   <si>
-    <t>https://s3.amazonaws.com/criterion-production/films/58af11c9e0933492c227a0f6bc42fcb5/Kknn0rzbae43wtmBwvemdtega0BMS7_large.jpg</t>
-  </si>
-  <si>
-    <t>https://www.criterion.com/films/34685-flow</t>
-  </si>
-  <si>
     <t>https://www.criterion.com/films/317-this-is-spinal-tap</t>
   </si>
   <si>
-    <t>https://www.criterion.com/films/29368-the-princess-bride</t>
-  </si>
-  <si>
     <t>This Is Spinal Tap 4K Blu-Ray</t>
   </si>
   <si>
@@ -672,30 +660,18 @@
     <t>360 RON / 70 EUR</t>
   </si>
   <si>
-    <t>https://regatuljocurilor.ro/135621-large_default/the-lord-of-the-rings-fate-of-the-fellowship-english-edition.jpg</t>
-  </si>
-  <si>
     <t>The Lord of the Rings: Fate of the Fellowship Board Game</t>
   </si>
   <si>
     <t>Bomb Busters (English Edition) Board Game</t>
   </si>
   <si>
-    <t>https://regatuljocurilor.ro/135947-large_default/-bomb-busters-english-edition.jpg</t>
-  </si>
-  <si>
     <t>https://regatuljocurilor.ro/ro/acasa/-bomb-busters-english-edition</t>
   </si>
   <si>
     <t>180 RON</t>
   </si>
   <si>
-    <t>https://www.criterion.com/films/543-high-and-low?utm_source=braze&amp;utm_medium=email&amp;utm_campaign=new-releases-available&amp;utm_content=sep-2025</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/criterion-production/films/e65763e6d1d83a962ab19a408bfda6eb/jl9963uFAEon5uv5zfWBbGjunRKJ7h_large.jpg</t>
-  </si>
-  <si>
     <t>High and Low 4K Blu-ray</t>
   </si>
   <si>
@@ -712,6 +688,30 @@
   </si>
   <si>
     <t>Ghost of Yotei</t>
+  </si>
+  <si>
+    <t>https://cf.geekdo-images.com/scw36iBIad7l-rGzxPGcGg__imagepagezoom/img/_4vjfCTmtDZQ47ka0jx1fL-F-xE=/fit-in/1200x900/filters:no_upscale():strip_icc()/pic8662670.png</t>
+  </si>
+  <si>
+    <t>https://cf.geekdo-images.com/HpGXIlt5i6T-0jbiQRReOg__imagepage/img/qByefcEJ8iPS9Gd1YaXGeJbKw5U=/fit-in/900x600/filters:no_upscale():strip_icc()/pic8303080.png</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0FDJ6ZV5S?smid=ATVPDKIKX0DER&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0C879DRHW?smid=ATVPDKIKX0DER&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0DYJKJQPF?smid=ATVPDKIKX0DER&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81sB3vLwdCL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81M6shZoulL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71IHLi5qPLL._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1283,46 +1283,46 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3">
         <v>40</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D15" s="3">
         <v>40</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
         <v>218</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
       </c>
       <c r="D17" s="3">
         <v>40</v>
@@ -1386,30 +1386,30 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1836,35 +1836,7 @@
         <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1853,7 @@
         <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,23 +1898,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="3">
-        <v>40</v>
-      </c>
-    </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,7 +1942,7 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
         <v>94</v>
@@ -2018,7 +1976,7 @@
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
         <v>91</v>
@@ -2027,6 +1985,57 @@
         <v>92</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="3">
+        <v>40</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>54</v>
       </c>
     </row>

--- a/wishlist_valentin.xlsx
+++ b/wishlist_valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{64E338DB-40B6-4262-9583-6B45DA59074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A808B821-B50A-4D06-ACB6-73539A74D194}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{64E338DB-40B6-4262-9583-6B45DA59074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C475E0-DDFC-45F3-9B47-1B1BD8F412EB}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Wishlist Valentin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Valentin'!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="224">
   <si>
     <t>Image</t>
   </si>
@@ -801,6 +801,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,44 +1390,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>197</v>
@@ -1431,16 +1438,16 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>197</v>
@@ -1448,16 +1455,16 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>197</v>
@@ -1465,16 +1472,16 @@
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>197</v>
@@ -1482,16 +1489,16 @@
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
         <v>197</v>
@@ -1499,16 +1506,16 @@
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>197</v>
@@ -1516,16 +1523,16 @@
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>197</v>
@@ -1533,16 +1540,16 @@
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>197</v>
@@ -1550,16 +1557,16 @@
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>197</v>
@@ -1567,16 +1574,16 @@
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>197</v>
@@ -1584,16 +1591,16 @@
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
         <v>197</v>
@@ -1601,95 +1608,95 @@
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
         <v>197</v>
@@ -1697,16 +1704,16 @@
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>197</v>
@@ -1714,109 +1721,109 @@
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="s">
-        <v>126</v>
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
         <v>197</v>
@@ -1824,148 +1831,208 @@
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>171</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>199</v>
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="D55" s="3">
+        <v>40</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>54</v>
@@ -1973,74 +2040,23 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="3">
-        <v>40</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E57" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E53" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="GAP"/>
@@ -2053,14 +2069,14 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{88D7FD61-7495-433B-BB0E-0F6A89ABE74A}"/>
-    <hyperlink ref="B50" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
+    <hyperlink ref="B47" r:id="rId2" xr:uid="{63CC93D1-B3B9-4AD9-8A03-C49E71BB178F}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{BE3001C8-C6F4-4958-8E83-375C8631FFD0}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{B0629CDA-CE4C-4A68-98F2-514ED65E6764}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D94EF1-4592-45B9-B8B2-6EE34CDA156B}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{5F8F8A1D-DECA-423A-B681-8EB6D1C72089}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{EA0AE655-D84E-4CA0-B64D-234DB4B1F86A}"/>
     <hyperlink ref="B16" r:id="rId8" xr:uid="{962EF1F7-F1F1-425B-85D9-C19696DDDA8A}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
+    <hyperlink ref="C49" r:id="rId9" xr:uid="{9CC374CE-9746-4369-A4C1-2ED078F270F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
